--- a/Excel/wBoss.世界BOSS.xlsx
+++ b/Excel/wBoss.世界BOSS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003EC540-8307-418C-8476-C876CBD20604}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969BA73C-A58E-41E8-A7FA-E9F9E313E024}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,182 +21,1367 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>levelLimit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>reviveT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hp.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hp.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>行ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>等级限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>复活时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生命值W</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生命值V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>drop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>掉落组ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级随机装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级随机装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级随机装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4级随机装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4级随机装备+2级晶片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3级随机装备+1级晶片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4级随机装备+1级晶片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3级随机装备+2级晶片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5级随机装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6级随机装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4阶装备奖池</t>
   </si>
   <si>
-    <t>mon_id:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>世界BOSS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>wBoss.json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务端的世界BOSS表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级随机装备（全）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级随机装备（武器，肩甲，项链，头盔）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级随机装备（头盔，衣服，裤子，鞋子）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级随机装备（头盔，衣服，裤子，鞋子）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级随机装备（全随机）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级随机装备（武器，肩甲，项链，头盔）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:a&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级随机装备（头盔，衣服，裤子，鞋子）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级随机装备（全随机）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级随机装备（头盔，衣服，裤子，鞋子）+ 1级晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级随机装备（武器，肩甲，项链，头盔）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级随机装备（武器，肩甲，项链，头盔）+ 1级晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级随机装备（头盔，衣服，裤子，鞋子）+ 2级晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级随机装备（武器，肩甲，项链，头盔）+ 2级晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6级随机装备（全随机）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级随机装备（头盔，衣服，裤子，鞋子）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级随机装备（武器，肩甲，项链，头盔）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级随机装备（头盔，衣服，裤子，鞋子）+ 2级晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级随机装备（武器，肩甲，项链，头盔）+ 2级晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级随机装备（头盔，衣服，裤子，鞋子）+ 3级晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级随机装备（武器，肩甲，项链，头盔）+ 3级晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级随机装备（全随机）+ 3级晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6级随机装备 + 4级晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>awads</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励预览</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S1,头盔S1,衣服S1,戒指S1,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>头盔S2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衣服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裤子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鞋子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S2,金币</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>武器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,肩甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项链</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头盔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S2,金币</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S3,衣服S3,裤子S3,鞋子S3,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S4,衣服S4,裤子S4,肩甲S4,项链S4,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S3,衣服S3,裤子S3,肩甲S3,项链S3,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S3,衣服S3,裤子S3,肩甲S3,项链S3,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S3,衣服S3,裤子S3,肩甲S3,项链S3,1级攻击晶片,1级防御晶片,1级幸运晶片,1级财富晶片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>头盔S4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衣服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裤子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鞋子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S4,金币</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S5,衣服S5,裤子S5,肩甲S5,项链S5,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S4,肩甲S4,项链S4,头盔S4,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S4,衣服S4,裤子S4,鞋子S4,1级攻击晶片,1级防御晶片,1级幸运晶片,1级财富晶片,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S4,肩甲S4,项链S4,头盔S4,1级攻击晶片,1级防御晶片,1级幸运晶片,1级财富晶片,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S4,衣服S4,裤子S4,鞋子S4,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S4,肩甲S4,项链S4,头盔S4,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>头盔S5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衣服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裤子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鞋子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S5,金币</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S5,肩甲S5,项链S5,头盔S5,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S6,衣服S6,裤子S6,肩甲S6,项链S6,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>头盔S5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衣服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裤子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鞋子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S5,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S5,肩甲S5,项链S5,头盔S5,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>头盔S5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衣服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裤子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鞋子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S5,3级攻击晶片,3级防御晶片,3级幸运晶片,3级财富晶片,金币</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S5,肩甲S5,项链S5,头盔S5,3级攻击晶片,3级防御晶片,3级幸运晶片,3级财富晶片,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S5,衣服S5,裤子S5,肩甲S5,项链S5,3级攻击晶片,3级防御晶片,3级幸运晶片,3级财富晶片,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S6,衣服S6,裤子S6,肩甲S6,项链S6,4级攻击晶片,4级防御晶片,4级幸运晶片,4级财富晶片,金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,50 +1546,50 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -741,22 +1926,22 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -793,7 +1978,7 @@
       <c r="A9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -801,25 +1986,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17241F1-5872-43A9-BA64-58F8EE78DBDA}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="4" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="85.125" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -833,24 +2019,30 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -859,45 +2051,57 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -910,21 +2114,29 @@
       <c r="D4" s="3">
         <v>300</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="F4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -937,21 +2149,29 @@
       <c r="D5" s="3">
         <v>600</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="I5" s="3">
         <v>50</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -964,21 +2184,29 @@
       <c r="D6" s="3">
         <v>1200</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="I6" s="3">
         <v>100</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -991,21 +2219,29 @@
       <c r="D7" s="3">
         <v>1800</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1018,21 +2254,29 @@
       <c r="D8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1045,21 +2289,29 @@
       <c r="D9" s="3">
         <v>2700</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
         <v>37</v>
       </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1072,21 +2324,29 @@
       <c r="D10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="E10" s="3">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1099,21 +2359,29 @@
       <c r="D11" s="3">
         <v>3600</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="E11" s="3">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="I11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1126,21 +2394,29 @@
       <c r="D12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="E12" s="3">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1153,21 +2429,29 @@
       <c r="D13" s="3">
         <v>3600</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="I13" s="3">
         <v>5</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1180,21 +2464,29 @@
       <c r="D14" s="3">
         <v>4200</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>6</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1207,21 +2499,29 @@
       <c r="D15" s="3">
         <v>4200</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
+      <c r="E15" s="3">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>7</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1234,21 +2534,29 @@
       <c r="D16" s="3">
         <v>4200</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
+      <c r="E16" s="3">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="I16" s="3">
         <v>8</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1261,21 +2569,29 @@
       <c r="D17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
+      <c r="E17" s="3">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1288,21 +2604,29 @@
       <c r="D18" s="3">
         <v>4200</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1315,21 +2639,29 @@
       <c r="D19" s="3">
         <v>5400</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
+      <c r="E19" s="3">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="I19" s="3">
         <v>11</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1342,21 +2674,29 @@
       <c r="D20" s="3">
         <v>5400</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
+      <c r="E20" s="3">
+        <v>17</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>12</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1369,21 +2709,29 @@
       <c r="D21" s="3">
         <v>5400</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
+      <c r="E21" s="3">
+        <v>18</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>13</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1396,21 +2744,29 @@
       <c r="D22" s="3">
         <v>5400</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
+      <c r="E22" s="3">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>14</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1423,21 +2779,29 @@
       <c r="D23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
+      <c r="E23" s="3">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>15</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1450,21 +2814,29 @@
       <c r="D24" s="3">
         <v>5400</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
+      <c r="E24" s="3">
+        <v>21</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>16</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1477,21 +2849,29 @@
       <c r="D25" s="3">
         <v>5400</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
+      <c r="E25" s="3">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="I25" s="3">
         <v>17</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1504,21 +2884,29 @@
       <c r="D26" s="3">
         <v>5400</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
+      <c r="E26" s="3">
+        <v>23</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>18</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -1531,21 +2919,29 @@
       <c r="D27" s="3">
         <v>5400</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
+      <c r="E27" s="3">
+        <v>24</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>19</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -1558,22 +2954,30 @@
       <c r="D28" s="3">
         <v>5400</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
+      <c r="E28" s="3">
+        <v>25</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="3">
+      <c r="I28" s="3">
         <v>20</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" t="s">
-        <v>36</v>
+      <c r="J28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Excel/wBoss.世界BOSS.xlsx
+++ b/Excel/wBoss.世界BOSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969BA73C-A58E-41E8-A7FA-E9F9E313E024}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F12D1D-EA0D-49CD-AB82-EBAB2D77F976}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,245 +27,241 @@
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>levelLimit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reviveT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hp.w</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hp.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>行ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>等级限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>复活时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生命值W</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生命值V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>drop</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>掉落组ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3级随机装备+1级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3级随机装备+2级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4阶装备奖池</t>
   </si>
   <si>
     <t>世界BOSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>wBoss.json</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>服务端的世界BOSS表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>float:&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1级随机装备（全）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2级随机装备（武器，肩甲，项链，头盔）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2级随机装备（头盔，衣服，裤子，鞋子）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3级随机装备（头盔，衣服，裤子，鞋子）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4级随机装备（全随机）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3级随机装备（武器，肩甲，项链，头盔）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>drop_id:a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4级随机装备（头盔，衣服，裤子，鞋子）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5级随机装备（全随机）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4级随机装备（头盔，衣服，裤子，鞋子）+ 1级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4级随机装备（武器，肩甲，项链，头盔）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4级随机装备（武器，肩甲，项链，头盔）+ 1级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4级随机装备（头盔，衣服，裤子，鞋子）+ 2级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4级随机装备（武器，肩甲，项链，头盔）+ 2级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6级随机装备（全随机）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5级随机装备（头盔，衣服，裤子，鞋子）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5级随机装备（武器，肩甲，项链，头盔）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5级随机装备（头盔，衣服，裤子，鞋子）+ 2级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5级随机装备（武器，肩甲，项链，头盔）+ 2级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5级随机装备（头盔，衣服，裤子，鞋子）+ 3级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5级随机装备（武器，肩甲，项链，头盔）+ 3级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5级随机装备（全随机）+ 3级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6级随机装备 + 4级晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lvId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>awads</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>关卡ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奖励预览</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S1,头盔S1,衣服S1,戒指S1,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,7 +327,7 @@
       </rPr>
       <t>S2,金币</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -407,27 +403,27 @@
       </rPr>
       <t>S2,金币</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>头盔S3,衣服S3,裤子S3,鞋子S3,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S4,衣服S4,裤子S4,肩甲S4,项链S4,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S3,衣服S3,裤子S3,肩甲S3,项链S3,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S3,衣服S3,裤子S3,肩甲S3,项链S3,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S3,衣服S3,裤子S3,肩甲S3,项链S3,1级攻击晶片,1级防御晶片,1级幸运晶片,1级财富晶片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -493,31 +489,31 @@
       </rPr>
       <t>S4,金币</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S5,衣服S5,裤子S5,肩甲S5,项链S5,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S4,肩甲S4,项链S4,头盔S4,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>头盔S4,衣服S4,裤子S4,鞋子S4,1级攻击晶片,1级防御晶片,1级幸运晶片,1级财富晶片,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S4,肩甲S4,项链S4,头盔S4,1级攻击晶片,1级防御晶片,1级幸运晶片,1级财富晶片,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>头盔S4,衣服S4,裤子S4,鞋子S4,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S4,肩甲S4,项链S4,头盔S4,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -583,15 +579,15 @@
       </rPr>
       <t>S5,金币</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S5,肩甲S5,项链S5,头盔S5,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S6,衣服S6,裤子S6,肩甲S6,项链S6,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -657,11 +653,11 @@
       </rPr>
       <t>S5,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S5,肩甲S5,项链S5,头盔S5,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -727,31 +723,31 @@
       </rPr>
       <t>S5,3级攻击晶片,3级防御晶片,3级幸运晶片,3级财富晶片,金币</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S5,肩甲S5,项链S5,头盔S5,3级攻击晶片,3级防御晶片,3级幸运晶片,3级财富晶片,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S5,衣服S5,裤子S5,肩甲S5,项链S5,3级攻击晶片,3级防御晶片,3级幸运晶片,3级财富晶片,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器S6,衣服S6,裤子S6,肩甲S6,项链S6,4级攻击晶片,4级防御晶片,4级幸运晶片,4级财富晶片,金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bossName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BOSS名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -767,7 +763,7 @@
       </rPr>
       <t>OSS1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1368,20 +1364,17 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>item_id:a&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,50 +1539,50 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1978,7 +1971,7 @@
       <c r="A9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1989,7 +1982,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2022,7 +2015,7 @@
         <v>55</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>57</v>
@@ -2054,10 +2047,10 @@
         <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
@@ -2086,7 +2079,7 @@
         <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>59</v>
@@ -2118,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -2153,10 +2146,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -2188,10 +2181,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -2223,10 +2216,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="3">
         <v>2</v>
@@ -2258,10 +2251,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
@@ -2293,10 +2286,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -2328,10 +2321,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
@@ -2363,10 +2356,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="3">
         <v>2</v>
@@ -2398,10 +2391,10 @@
         <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="3">
         <v>2</v>
@@ -2433,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3">
         <v>2</v>
@@ -2468,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
@@ -2503,10 +2496,10 @@
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
@@ -2538,10 +2531,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
@@ -2573,10 +2566,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="3">
         <v>2</v>
@@ -2608,10 +2601,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="3">
         <v>2</v>
@@ -2643,10 +2636,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -2678,10 +2671,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H20" s="3">
         <v>2</v>
@@ -2713,10 +2706,10 @@
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" s="3">
         <v>2</v>
@@ -2748,10 +2741,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="3">
         <v>2</v>
@@ -2783,10 +2776,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="3">
         <v>2</v>
@@ -2818,10 +2811,10 @@
         <v>21</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="3">
         <v>2</v>
@@ -2853,10 +2846,10 @@
         <v>22</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="3">
         <v>2</v>
@@ -2888,10 +2881,10 @@
         <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" s="3">
         <v>2</v>
@@ -2923,10 +2916,10 @@
         <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
@@ -2958,10 +2951,10 @@
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="3">
         <v>2</v>
@@ -2977,7 +2970,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Excel/wBoss.世界BOSS.xlsx
+++ b/Excel/wBoss.世界BOSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F12D1D-EA0D-49CD-AB82-EBAB2D77F976}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05025D5-A3BA-4584-8F73-228F893AB837}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
   <si>
     <t>sheet名</t>
   </si>
@@ -152,14 +152,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2级随机装备（武器，肩甲，项链，头盔）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级随机装备（头盔，衣服，裤子，鞋子）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3级随机装备（头盔，衣服，裤子，鞋子）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1367,6 +1359,22 @@
   </si>
   <si>
     <t>item_id:a&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级随机装备+1级晶片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级随机装备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsScore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐战力</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1979,26 +1987,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17241F1-5872-43A9-BA64-58F8EE78DBDA}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="85.125" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="49.625" customWidth="1"/>
+    <col min="6" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="85.125" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -2012,25 +2020,28 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2044,25 +2055,28 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2076,25 +2090,28 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2111,25 +2128,28 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="3">
+        <v>85</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>20</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2146,25 +2166,28 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="3">
+        <v>86</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>50</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2181,25 +2204,28 @@
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="3">
+        <v>87</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>100</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2216,25 +2242,28 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="3">
+        <v>88</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2245,31 +2274,34 @@
         <v>80</v>
       </c>
       <c r="D8" s="3">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="3">
+        <v>89</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2286,25 +2318,28 @@
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2321,25 +2356,28 @@
         <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
+        <v>91</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2356,25 +2394,28 @@
         <v>8</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="3">
+        <v>92</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>3</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2391,25 +2432,28 @@
         <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="3">
+        <v>93</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2420,31 +2464,34 @@
         <v>200</v>
       </c>
       <c r="D13" s="3">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="3">
+        <v>94</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2461,25 +2508,28 @@
         <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="3">
+        <v>95</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2496,25 +2546,28 @@
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="3">
+        <v>96</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2531,25 +2584,28 @@
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="3">
+        <v>97</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>8</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2566,25 +2622,28 @@
         <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="3">
+        <v>98</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2601,25 +2660,28 @@
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="3">
+        <v>99</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2636,25 +2698,28 @@
         <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="3">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="3">
         <v>2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>11</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2671,25 +2736,28 @@
         <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="3">
+        <v>101</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2700,31 +2768,34 @@
         <v>330</v>
       </c>
       <c r="D21" s="3">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="E21" s="3">
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="3">
+        <v>102</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="3">
         <v>2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2741,25 +2812,28 @@
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="3">
+        <v>103</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2776,25 +2850,28 @@
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="3">
+        <v>104</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="3">
         <v>2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2811,25 +2888,28 @@
         <v>21</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="3">
+        <v>105</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="3">
         <v>2</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2846,25 +2926,28 @@
         <v>22</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="3">
+        <v>106</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="3">
         <v>2</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>17</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2881,25 +2964,28 @@
         <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="3">
+        <v>107</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="3">
         <v>2</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2910,31 +2996,34 @@
         <v>500</v>
       </c>
       <c r="D27" s="3">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="E27" s="3">
         <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="3">
+        <v>108</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="3">
         <v>2</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2945,28 +3034,31 @@
         <v>500</v>
       </c>
       <c r="D28" s="3">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="E28" s="3">
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="3">
+        <v>109</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="3">
         <v>2</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>20</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L28" t="s">
-        <v>54</v>
+      <c r="M28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/wBoss.世界BOSS.xlsx
+++ b/Excel/wBoss.世界BOSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05025D5-A3BA-4584-8F73-228F893AB837}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734767D1-926E-4CC9-87ED-F88660D2CF97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="139">
   <si>
     <t>sheet名</t>
   </si>
@@ -121,9 +121,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4阶装备奖池</t>
-  </si>
-  <si>
     <t>世界BOSS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1375,6 +1372,270 @@
   </si>
   <si>
     <t>推荐战力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-1-1</t>
+  </si>
+  <si>
+    <t>世界BOSS-2-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-3-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-3-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-4-1</t>
+  </si>
+  <si>
+    <t>世界BOSS-5-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-6-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-7-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-7-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-8-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-8-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-9-1</t>
+  </si>
+  <si>
+    <t>世界BOSS-10-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-11-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-12-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-12-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-13-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-13-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-14-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-14-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-15-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-15-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-16-1</t>
+  </si>
+  <si>
+    <t>世界BOSS-17-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-18-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-19-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-19-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-20-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-20-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-21-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-21-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-22-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-22-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-23-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-23-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-24-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-24-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-25-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS-25-2</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1927,22 +2188,22 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1989,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17241F1-5872-43A9-BA64-58F8EE78DBDA}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2001,7 +2262,7 @@
     <col min="8" max="8" width="85.125" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="35.625" customWidth="1"/>
     <col min="12" max="12" width="9.625" customWidth="1"/>
     <col min="13" max="13" width="49.625" customWidth="1"/>
   </cols>
@@ -2020,16 +2281,16 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>12</v>
@@ -2055,25 +2316,25 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -2090,16 +2351,16 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>18</v>
@@ -2128,13 +2389,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="4">
         <v>1000</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2143,10 +2404,10 @@
         <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2166,13 +2427,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="4">
         <v>1000</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2181,10 +2442,10 @@
         <v>50</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2204,13 +2465,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="4">
         <v>1000</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -2218,11 +2479,11 @@
       <c r="J6" s="3">
         <v>100</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>25</v>
+      <c r="K6" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2242,13 +2503,13 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="4">
         <v>1000</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="3">
         <v>2</v>
@@ -2257,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2280,13 +2541,13 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="4">
         <v>1000</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -2295,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2318,13 +2579,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="4">
         <v>1000</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -2333,10 +2594,10 @@
         <v>2</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2356,13 +2617,13 @@
         <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="4">
         <v>1000</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="3">
         <v>2</v>
@@ -2370,8 +2631,8 @@
       <c r="J10" s="3">
         <v>2</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>25</v>
+      <c r="K10" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="M10" t="s">
         <v>23</v>
@@ -2394,13 +2655,13 @@
         <v>8</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="4">
         <v>1000</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="3">
         <v>2</v>
@@ -2408,8 +2669,8 @@
       <c r="J11" s="3">
         <v>3</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>25</v>
+      <c r="K11" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="M11" t="s">
         <v>24</v>
@@ -2432,13 +2693,13 @@
         <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="4">
         <v>1000</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="3">
         <v>2</v>
@@ -2447,10 +2708,10 @@
         <v>4</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2470,13 +2731,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4">
         <v>1000</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
@@ -2484,11 +2745,11 @@
       <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>25</v>
+      <c r="K13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2508,13 +2769,13 @@
         <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="4">
         <v>1000</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="3">
         <v>2</v>
@@ -2522,11 +2783,11 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>25</v>
+      <c r="K14" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2546,13 +2807,13 @@
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="4">
         <v>1000</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="3">
         <v>2</v>
@@ -2560,11 +2821,11 @@
       <c r="J15" s="3">
         <v>7</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>25</v>
+      <c r="K15" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2584,13 +2845,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="4">
         <v>1000</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
@@ -2598,11 +2859,11 @@
       <c r="J16" s="3">
         <v>8</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>25</v>
+      <c r="K16" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2622,13 +2883,13 @@
         <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="4">
         <v>1000</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="3">
         <v>2</v>
@@ -2636,11 +2897,11 @@
       <c r="J17" s="3">
         <v>9</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>25</v>
+      <c r="K17" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2660,13 +2921,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="4">
         <v>1000</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="3">
         <v>2</v>
@@ -2674,11 +2935,11 @@
       <c r="J18" s="3">
         <v>10</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>25</v>
+      <c r="K18" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2698,13 +2959,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="4">
         <v>1000</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="3">
         <v>2</v>
@@ -2713,10 +2974,10 @@
         <v>11</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2736,13 +2997,13 @@
         <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" s="4">
         <v>1000</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="3">
         <v>2</v>
@@ -2751,10 +3012,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="M20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2774,13 +3035,13 @@
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="4">
         <v>1000</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="3">
         <v>2</v>
@@ -2789,10 +3050,10 @@
         <v>13</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2812,13 +3073,13 @@
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="4">
         <v>1000</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="3">
         <v>2</v>
@@ -2826,11 +3087,11 @@
       <c r="J22" s="3">
         <v>14</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>25</v>
+      <c r="K22" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2850,13 +3111,13 @@
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="4">
         <v>1000</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="3">
         <v>2</v>
@@ -2864,11 +3125,11 @@
       <c r="J23" s="3">
         <v>15</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>25</v>
+      <c r="K23" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="M23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2888,13 +3149,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="4">
         <v>1000</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="3">
         <v>2</v>
@@ -2902,11 +3163,11 @@
       <c r="J24" s="3">
         <v>16</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>25</v>
+      <c r="K24" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="M24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2926,13 +3187,13 @@
         <v>22</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="4">
         <v>1000</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="3">
         <v>2</v>
@@ -2940,11 +3201,11 @@
       <c r="J25" s="3">
         <v>17</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>25</v>
+      <c r="K25" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="M25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2964,13 +3225,13 @@
         <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="4">
         <v>1000</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="3">
         <v>2</v>
@@ -2978,11 +3239,11 @@
       <c r="J26" s="3">
         <v>18</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>25</v>
+      <c r="K26" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="M26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -3002,13 +3263,13 @@
         <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G27" s="4">
         <v>1000</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="3">
         <v>2</v>
@@ -3016,11 +3277,11 @@
       <c r="J27" s="3">
         <v>19</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>25</v>
+      <c r="K27" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="M27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -3040,13 +3301,13 @@
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" s="4">
         <v>1000</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="3">
         <v>2</v>
@@ -3054,11 +3315,11 @@
       <c r="J28" s="3">
         <v>20</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>25</v>
+      <c r="K28" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/wBoss.世界BOSS.xlsx
+++ b/Excel/wBoss.世界BOSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1D781B-0B3D-4E66-ACCC-F7E7F225A198}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6D081-CE68-4745-982A-F7D8167DD62E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="160">
   <si>
     <t>sheet名</t>
   </si>
@@ -161,12 +161,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>武器S1,头盔S1,衣服S1,戒指S1,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>头盔S2,</t>
+    <t>头盔S3,衣服S3,裤子S3,鞋子S3,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>头盔S4,</t>
     </r>
     <r>
       <rPr>
@@ -186,7 +186,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>S2,</t>
+      <t>S4,</t>
     </r>
     <r>
       <rPr>
@@ -206,7 +206,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>S2,</t>
+      <t>S4,</t>
     </r>
     <r>
       <rPr>
@@ -226,109 +226,25 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>S2,金币</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>武器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,肩甲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项链</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头盔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S2,金币</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔S3,衣服S3,裤子S3,鞋子S3,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S4,衣服S4,裤子S4,肩甲S4,项链S4,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S3,衣服S3,裤子S3,肩甲S3,项链S3,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S3,衣服S3,裤子S3,肩甲S3,项链S3,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S3,衣服S3,裤子S3,肩甲S3,项链S3,1级攻击晶片,1级防御晶片,1级幸运晶片,1级财富晶片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>头盔S4,</t>
+      <t>S4,金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S4,肩甲S4,项链S4,头盔S4,1级攻击晶片,1级防御晶片,1级幸运晶片,1级财富晶片,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S4,衣服S4,裤子S4,鞋子S4,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S4,肩甲S4,项链S4,头盔S4,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>头盔S5,</t>
     </r>
     <r>
       <rPr>
@@ -348,7 +264,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>S4,</t>
+      <t>S5,</t>
     </r>
     <r>
       <rPr>
@@ -368,7 +284,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>S4,</t>
+      <t>S5,</t>
     </r>
     <r>
       <rPr>
@@ -388,32 +304,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>S4,金币</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S5,衣服S5,裤子S5,肩甲S5,项链S5,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S4,肩甲S4,项链S4,头盔S4,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔S4,衣服S4,裤子S4,鞋子S4,1级攻击晶片,1级防御晶片,1级幸运晶片,1级财富晶片,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S4,肩甲S4,项链S4,头盔S4,1级攻击晶片,1级防御晶片,1级幸运晶片,1级财富晶片,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔S4,衣服S4,裤子S4,鞋子S4,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S4,肩甲S4,项链S4,头盔S4,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
+      <t>S5,金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S5,肩甲S5,项链S5,头盔S5,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S6,衣服S6,裤子S6,肩甲S6,项链S6,金币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -478,16 +378,12 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>S5,金币</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S5,肩甲S5,项链S5,头盔S5,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S6,衣服S6,裤子S6,肩甲S6,项链S6,金币</t>
+      <t>S5,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S5,肩甲S5,项链S5,头盔S5,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -552,76 +448,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>S5,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S5,肩甲S5,项链S5,头盔S5,2级攻击晶片,2级防御晶片,2级幸运晶片,2级财富晶片,金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>头盔S5,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>衣服</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S5,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>裤子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S5,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鞋子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>S5,3级攻击晶片,3级防御晶片,3级幸运晶片,3级财富晶片,金币</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1275,131 +1101,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>世界BOSS-1-1</t>
-  </si>
-  <si>
-    <t>世界BOSS-2-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-3-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-3-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-4-1</t>
-  </si>
-  <si>
-    <t>世界BOSS-5-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-6-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-7-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-7-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-8-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-8-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-9-1</t>
-  </si>
-  <si>
-    <t>世界BOSS-10-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-11-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-12-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-12-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-13-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-13-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-14-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-14-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>世界BOSS-15-1</t>
     </r>
@@ -1416,129 +1117,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>世界BOSS-16-1</t>
-  </si>
-  <si>
-    <t>世界BOSS-17-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-18-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-19-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-19-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-20-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-20-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-21-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-21-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-22-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-22-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-23-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-23-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-24-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-24-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界BOSS-25-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,世界BOSS-25-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>boss3001</t>
   </si>
   <si>
@@ -1673,6 +1251,266 @@
   </si>
   <si>
     <t>mon140001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S7,衣服S7,裤子S7,肩甲S7,项链S7,4级攻击晶片,4级防御晶片,4级幸运晶片,4级财富晶片,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7级随机装备 + 4级晶片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S1,头盔S1,肩甲S1,衣服S1,裤子S1,鞋子S1,项链S1,戒指S1,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S2,头盔S2,肩甲S2,衣服S2,裤子S2,鞋子S2,项链S2,戒指S2,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S2,头盔S2,肩甲S2,衣服S2,裤子S2,鞋子S2,项链S2,戒指S2,1级攻击晶片,1级防御晶片,1级生命晶片,1级护盾晶片,1级盾复晶片,1级暴击晶片,1级抗暴晶片,1级冲击晶片,1级格挡晶片,1级增伤晶片,1级减伤晶片,1级财富晶片,1级幸运晶片,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S4,头盔S4,肩甲S4,衣服S4,裤子S4,鞋子S4,项链S4,戒指S4,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S3,肩甲S3,项链S3,头盔S3,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S3,头盔S3,肩甲S3,衣服S3,裤子S3,鞋子S3,项链S3,戒指S3,1级攻击晶片,1级防御晶片,1级生命晶片,1级护盾晶片,1级盾复晶片,1级暴击晶片,1级抗暴晶片,1级冲击晶片,1级格挡晶片,1级增伤晶片,1级减伤晶片,1级财富晶片,1级幸运晶片,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS通用金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-2-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS通用金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-3-1,世界BOSS-3-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-4-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS通用金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-5-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS通用金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-6-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS通用金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-7-1,世界BOSS-7-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-8-1,世界BOSS-8-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-9-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS通用金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-10-1,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-11-1,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-12-1,世界BOSS-12-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-13-1,世界BOSS-13-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-14-1,世界BOSS-14-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-16-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS通用金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-17-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS通用金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界BOSS-18-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,世界BOSS通用金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-19-1,世界BOSS-19-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-20-1,世界BOSS-20-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-21-1,世界BOSS-21-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-22-1,世界BOSS-22-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-23-1,世界BOSS-23-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-24-1,世界BOSS-24-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-25-1,世界BOSS-25-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-26-1,世界BOSS-26-2,世界BOSS通用金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S3,头盔S3,肩甲S3,衣服S3,裤子S3,鞋子S3,项链S3,戒指S3,2级攻击晶片,2级防御晶片,2级生命晶片,2级护盾晶片,2级盾复晶片,2级暴击晶片,2级抗暴晶片,2级冲击晶片,2级格挡晶片,2级增伤晶片,2级减伤晶片,2级财富晶片,2级幸运晶片,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S5,头盔S5,肩甲S5,衣服S5,裤子S5,鞋子S5,项链S5,戒指S5,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S4,肩甲S4,项链S4,戒指S4,金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S4,衣服S4,裤子S4,鞋子S4,1级攻击晶片,1级防御晶片,1级生命晶片,1级护盾晶片,1级盾复晶片,1级暴击晶片,1级抗暴晶片,1级冲击晶片,1级格挡晶片,1级增伤晶片,1级减伤晶片,1级财富晶片,1级幸运晶片,金币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2285,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17241F1-5872-43A9-BA64-58F8EE78DBDA}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2296,7 +2134,7 @@
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="85.125" customWidth="1"/>
+    <col min="8" max="8" width="113.5" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="14.625" customWidth="1"/>
     <col min="11" max="11" width="35.625" customWidth="1"/>
@@ -2322,10 +2160,10 @@
         <v>30</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>32</v>
@@ -2363,7 +2201,7 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
@@ -2392,10 +2230,10 @@
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>34</v>
@@ -2427,13 +2265,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G4" s="4">
         <v>502159</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2441,14 +2279,14 @@
       <c r="J4" s="3">
         <v>2036.01</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>89</v>
+      <c r="K4" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="N4" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2468,13 +2306,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G5" s="4">
         <v>736993</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2482,17 +2320,17 @@
       <c r="J5" s="3">
         <v>3027.87</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>90</v>
+      <c r="K5" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="M5" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2509,13 +2347,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4">
         <v>1463061</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -2524,13 +2362,13 @@
         <v>8368.4</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="M6" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2550,13 +2388,13 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4">
         <v>2413185</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -2564,14 +2402,14 @@
       <c r="J7" s="3">
         <v>16313.27</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>92</v>
+      <c r="K7" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2591,13 +2429,13 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G8" s="4">
         <v>2413185</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -2605,14 +2443,14 @@
       <c r="J8" s="3">
         <v>16313.27</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>93</v>
+      <c r="K8" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="M8" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2632,13 +2470,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G9" s="4">
         <v>6374511</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -2646,17 +2484,17 @@
       <c r="J9" s="3">
         <v>53444.160000000003</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>94</v>
+      <c r="K9" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="M9" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2673,13 +2511,13 @@
         <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G10" s="4">
         <v>7517863</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -2688,16 +2526,16 @@
         <v>64531.99</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2714,13 +2552,13 @@
         <v>8</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4">
         <v>10703058</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -2729,13 +2567,13 @@
         <v>94155.89</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2755,13 +2593,13 @@
         <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G12" s="4">
         <v>13260885</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -2769,14 +2607,14 @@
       <c r="J12" s="3">
         <v>185322.31</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>97</v>
+      <c r="K12" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M12" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2796,13 +2634,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4">
         <v>16554604</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -2811,13 +2649,13 @@
         <v>248395.93</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2837,13 +2675,13 @@
         <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G14" s="4">
         <v>18762565</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -2852,16 +2690,16 @@
         <v>276068.78999999998</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2878,13 +2716,13 @@
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G15" s="4">
         <v>20528584</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2893,16 +2731,16 @@
         <v>301988.23</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2919,13 +2757,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G16" s="4">
         <v>22915216</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2934,16 +2772,16 @@
         <v>353051.04</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2960,13 +2798,13 @@
         <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G17" s="4">
         <v>32603017</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -2975,13 +2813,13 @@
         <v>451087.2</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="M17" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -3001,13 +2839,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G18" s="4">
         <v>37060566</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -3016,13 +2854,13 @@
         <v>518151.3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="M18" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -3042,13 +2880,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G19" s="4">
         <v>43019194</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -3056,14 +2894,14 @@
       <c r="J19" s="3">
         <v>652303.02</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>104</v>
+      <c r="K19" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="M19" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -3083,13 +2921,13 @@
         <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4">
         <v>43019194</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -3097,14 +2935,14 @@
       <c r="J20" s="3">
         <v>652303.02</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>105</v>
+      <c r="K20" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="M20" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -3124,13 +2962,13 @@
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G21" s="4">
         <v>61837597</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I21" s="3">
         <v>2</v>
@@ -3138,17 +2976,17 @@
       <c r="J21" s="3">
         <v>1090.03</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>106</v>
+      <c r="K21" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="M21" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3165,13 +3003,13 @@
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G22" s="4">
         <v>65022816</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I22" s="3">
         <v>2</v>
@@ -3180,16 +3018,16 @@
         <v>1108.73</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="M22" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="N22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3206,13 +3044,13 @@
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G23" s="4">
         <v>77078917</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I23" s="3">
         <v>2</v>
@@ -3221,16 +3059,16 @@
         <v>1231.56</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="M23" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="N23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3247,13 +3085,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G24" s="4">
         <v>91169280</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I24" s="3">
         <v>2</v>
@@ -3262,16 +3100,16 @@
         <v>1552.83</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="N24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -3288,13 +3126,13 @@
         <v>22</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G25" s="4">
         <v>102595273</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I25" s="3">
         <v>2</v>
@@ -3303,16 +3141,16 @@
         <v>1811.39</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="M25" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="N25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3329,13 +3167,13 @@
         <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G26" s="4">
         <v>129062487</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I26" s="3">
         <v>2</v>
@@ -3344,16 +3182,16 @@
         <v>2586.23</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="N26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3370,13 +3208,13 @@
         <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G27" s="4">
         <v>157341712</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I27" s="3">
         <v>2</v>
@@ -3385,16 +3223,16 @@
         <v>3243.19</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="M27" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3411,13 +3249,13 @@
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G28" s="4">
         <v>157341712</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I28" s="3">
         <v>2</v>
@@ -3426,13 +3264,54 @@
         <v>3243.19</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="N28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>125</v>
+      </c>
+      <c r="C29" s="3">
+        <v>500</v>
+      </c>
+      <c r="D29" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>26</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="4">
+        <v>157341712</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>7161.62</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>155</v>
+      </c>
+      <c r="M29" t="s">
+        <v>124</v>
+      </c>
+      <c r="N29" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/wBoss.世界BOSS.xlsx
+++ b/Excel/wBoss.世界BOSS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A34DEB-E07B-4504-BA89-65E00A31160B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14730" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="155">
   <si>
     <t>sheet名</t>
   </si>
@@ -155,6 +161,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-1-1</t>
@@ -164,6 +171,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -187,6 +195,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-2-1</t>
@@ -196,6 +205,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -234,6 +244,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-4-1</t>
@@ -243,6 +254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -266,6 +278,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-5-1</t>
@@ -275,6 +288,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -295,6 +309,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-6-1</t>
@@ -304,6 +319,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -345,6 +361,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>头盔S4,</t>
@@ -354,6 +371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>衣服</t>
@@ -363,6 +381,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S4,</t>
@@ -372,6 +391,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>裤子</t>
@@ -381,6 +401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S4,</t>
@@ -390,6 +411,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>鞋子</t>
@@ -399,6 +421,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S4,金币</t>
@@ -410,6 +433,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-9-1</t>
@@ -419,6 +443,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -511,6 +536,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-15-1</t>
@@ -520,6 +546,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS-15-2</t>
@@ -537,6 +564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>头盔S5,</t>
@@ -546,6 +574,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>衣服</t>
@@ -555,6 +584,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S5,</t>
@@ -564,6 +594,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>裤子</t>
@@ -573,6 +604,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S5,</t>
@@ -582,6 +614,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>鞋子</t>
@@ -591,6 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S5,金币</t>
@@ -602,6 +636,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-16-1</t>
@@ -611,6 +646,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -631,6 +667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-17-1</t>
@@ -640,6 +677,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -660,6 +698,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-18-1</t>
@@ -669,6 +708,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -780,14 +820,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +833,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -806,58 +841,47 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -865,131 +889,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,73 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,121 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,14 +944,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1237,80 +969,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1321,294 +979,82 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1866,19 +1312,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1889,7 +1335,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="57.75" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1944,7 +1390,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1953,7 +1399,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1962,26 +1408,25 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="5" width="12.125" customWidth="1"/>
@@ -1995,7 +1440,7 @@
     <col min="15" max="15" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:12">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2033,7 +1478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2071,7 +1516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:12">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2109,7 +1554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:15">
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2153,7 +1598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:15">
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2197,7 +1642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="35.25" customHeight="1" spans="1:15">
+    <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2241,7 +1686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:15">
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2285,7 +1730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:15">
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2329,7 +1774,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:15">
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2361,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>53444.16</v>
+        <v>53444.160000000003</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>68</v>
@@ -2373,7 +1818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="1:15">
+    <row r="10" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2417,7 +1862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="1:15">
+    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2461,7 +1906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:15">
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2505,7 +1950,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:15">
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2549,7 +1994,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:15">
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2581,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="4">
-        <v>276068.79</v>
+        <v>276068.78999999998</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>88</v>
@@ -2593,7 +2038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:15">
+    <row r="15" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2637,7 +2082,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="1:15">
+    <row r="16" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2681,7 +2126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:15">
+    <row r="17" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2725,7 +2170,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" ht="33" spans="1:15">
+    <row r="18" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2769,7 +2214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:15">
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2813,7 +2258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:15">
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2857,7 +2302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:15">
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -2901,7 +2346,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="33" spans="1:15">
+    <row r="22" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -2945,7 +2390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" ht="33" spans="1:15">
+    <row r="23" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2989,7 +2434,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" ht="33" spans="1:15">
+    <row r="24" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -3033,7 +2478,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" ht="33" spans="1:15">
+    <row r="25" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -3077,7 +2522,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" ht="33" spans="1:15">
+    <row r="26" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -3121,7 +2566,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" ht="33" spans="1:15">
+    <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -3165,7 +2610,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" ht="33" spans="1:15">
+    <row r="28" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3209,12 +2654,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" ht="33" spans="1:15">
+    <row r="29" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
       <c r="B29" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4">
         <v>500</v>
@@ -3254,28 +2699,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="13" ht="16.5" spans="3:3">
+    <row r="13" spans="3:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/Excel/wBoss.世界BOSS.xlsx
+++ b/Excel/wBoss.世界BOSS.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAFF944-E077-4C37-B927-2B9FD0D26668}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18165" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18165" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="世界BOSS" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="179">
   <si>
     <t>sheet名</t>
   </si>
@@ -163,6 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-1-1</t>
@@ -172,6 +179,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -198,6 +206,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-2-1</t>
@@ -207,6 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -251,6 +261,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-4-1</t>
@@ -260,6 +271,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -283,6 +295,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-5-1</t>
@@ -292,6 +305,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -315,6 +329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-6-1</t>
@@ -324,6 +339,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -374,6 +390,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>头盔S4,</t>
@@ -383,6 +400,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>衣服</t>
@@ -392,6 +410,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S4,</t>
@@ -401,6 +420,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>裤子</t>
@@ -410,6 +430,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S4,</t>
@@ -419,6 +440,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>鞋子</t>
@@ -428,6 +450,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S4,金币</t>
@@ -439,6 +462,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-9-1</t>
@@ -448,6 +472,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -558,6 +583,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-15-1</t>
@@ -567,6 +593,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS-15-2</t>
@@ -587,6 +614,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>头盔S5,</t>
@@ -596,6 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>衣服</t>
@@ -605,6 +634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S5,</t>
@@ -614,6 +644,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>裤子</t>
@@ -623,6 +654,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S5,</t>
@@ -632,6 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>鞋子</t>
@@ -641,6 +674,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S5,金币</t>
@@ -652,6 +686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-16-1</t>
@@ -661,6 +696,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -681,6 +717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-17-1</t>
@@ -690,6 +727,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -713,6 +751,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>世界BOSS-18-1</t>
@@ -722,6 +761,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,世界BOSS通用金币</t>
@@ -851,14 +891,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,168 +905,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1040,6 +934,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1048,6 +943,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1056,11 +952,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1075,139 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,25 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,42 +1011,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1308,104 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1417,269 +1051,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1937,19 +1383,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1960,7 +1406,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +1429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="57.75" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2015,7 +1461,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2024,7 +1470,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2033,26 +1479,25 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
@@ -2067,7 +1512,7 @@
     <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2108,7 +1553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +1594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:13">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -2190,7 +1635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:16">
+    <row r="4" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2225,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="3">
-        <v>2036.01</v>
+        <v>2118.5500000000002</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>47</v>
@@ -2237,7 +1682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:16">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2272,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3">
-        <v>3027.87</v>
+        <v>3353.69</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>53</v>
@@ -2284,7 +1729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" ht="35.25" customHeight="1" spans="1:16">
+    <row r="6" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2319,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3">
-        <v>8368.4</v>
+        <v>9468.68</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>59</v>
@@ -2331,7 +1776,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:16">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2366,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3">
-        <v>16313.27</v>
+        <v>17505.2</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>65</v>
@@ -2378,7 +1823,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:16">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2413,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3">
-        <v>16313.27</v>
+        <v>24222.48</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>70</v>
@@ -2425,7 +1870,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:16">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2460,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3">
-        <v>53444.16</v>
+        <v>53531.08</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>75</v>
@@ -2472,7 +1917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="1:16">
+    <row r="10" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2507,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="3">
-        <v>64531.99</v>
+        <v>64617.22</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>80</v>
@@ -2519,7 +1964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="1:16">
+    <row r="11" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2566,7 +2011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:16">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2613,7 +2058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:16">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2648,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3">
-        <v>248395.93</v>
+        <v>323925.68</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>95</v>
@@ -2660,7 +2105,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:16">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2695,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3">
-        <v>276068.79</v>
+        <v>276068.78999999998</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>100</v>
@@ -2707,7 +2152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:16">
+    <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2754,7 +2199,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="1:16">
+    <row r="16" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2789,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3">
-        <v>353051.04</v>
+        <v>353210.42</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>112</v>
@@ -2801,7 +2246,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:16">
+    <row r="17" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2836,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>451087.2</v>
+        <v>451255.21</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>118</v>
@@ -2848,7 +2293,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" ht="33" spans="1:16">
+    <row r="18" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2883,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3">
-        <v>518151.3</v>
+        <v>518319.15</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>124</v>
@@ -2895,7 +2340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:16">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2930,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>652303.02</v>
+        <v>652496.73</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>129</v>
@@ -2942,7 +2387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:16">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2977,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3">
-        <v>652303.02</v>
+        <v>652496.73</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>133</v>
@@ -2989,7 +2434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:16">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -3024,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="3">
-        <v>1090.03</v>
+        <v>1419.16</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>138</v>
@@ -3036,7 +2481,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" ht="33" spans="1:16">
+    <row r="22" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3083,7 +2528,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" ht="33" spans="1:16">
+    <row r="23" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3130,7 +2575,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" ht="33" spans="1:16">
+    <row r="24" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3165,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="3">
-        <v>1552.83</v>
+        <v>1552.94</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>153</v>
@@ -3177,7 +2622,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" ht="33" spans="1:16">
+    <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -3212,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="3">
-        <v>1811.39</v>
+        <v>1811.49</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>158</v>
@@ -3224,7 +2669,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" ht="33" spans="1:16">
+    <row r="26" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3259,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="3">
-        <v>2586.23</v>
+        <v>2586.35</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>163</v>
@@ -3271,7 +2716,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" ht="33" spans="1:16">
+    <row r="27" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3306,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="3">
-        <v>3243.19</v>
+        <v>3243.31</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>169</v>
@@ -3318,7 +2763,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" ht="33" spans="1:16">
+    <row r="28" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3353,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="3">
-        <v>3243.19</v>
+        <v>3243.31</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>174</v>
@@ -3365,7 +2810,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" ht="33" spans="1:16">
+    <row r="29" spans="1:16" ht="33" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3400,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="3">
-        <v>7161.62</v>
+        <v>4680.3900000000003</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>177</v>
@@ -3413,8 +2858,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>